--- a/data/hotels_by_city/Houston/Houston_shard_70.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_70.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1558225-Reviews-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-Kingwood.h3040418.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,586 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r482895157-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1558225</t>
+  </si>
+  <si>
+    <t>482895157</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>You can buy a plunger</t>
+  </si>
+  <si>
+    <t>When I arrived at my hotel room the toilet was clogged so I called the front desk and the lady said "our maintenance guy has left for the day but if you come down to the front desk we have a plunger you can purchase to unclog the toilet." I was appalled so I went down to the front desk and said i wanted to change rooms and she has to get permission to change me to a room with a working toilet. When I arrived home and emailed the manager to tell him my experience at the hotel and his response was just as bad. He said they do not sell plungers to the guest but they have some up at the front desk for free that the guest can use to unclog the toilet. Never in my many years of traveling for work, teaching, or speaking have I been asked to unclog my hotel toilet. Outrageous!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Kingwood, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>When I arrived at my hotel room the toilet was clogged so I called the front desk and the lady said "our maintenance guy has left for the day but if you come down to the front desk we have a plunger you can purchase to unclog the toilet." I was appalled so I went down to the front desk and said i wanted to change rooms and she has to get permission to change me to a room with a working toilet. When I arrived home and emailed the manager to tell him my experience at the hotel and his response was just as bad. He said they do not sell plungers to the guest but they have some up at the front desk for free that the guest can use to unclog the toilet. Never in my many years of traveling for work, teaching, or speaking have I been asked to unclog my hotel toilet. Outrageous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r417258377-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417258377</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Very nice location.  Rooms very clean and kitch has all the amenities you need. I would recommend this place to anyone. Staff very friendly and helpful. Close to 59/69 but far enough you don't hear the traffic.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r409494561-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409494561</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>close to IAH</t>
+  </si>
+  <si>
+    <t>Perfect stay.  Large, clean room. Comfortable beds. Very quiet, away from freeway. Very friendly, helpful staff. No breakfast offered so I brought my own cereal and milk. Refrigerator / kitchenette in room.Stayed here before a flight out of IAH.  5-10 minute drive to IAH   (depending on parking lot you choose).Cheaper than hotels by airport.  Will stay here again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r381931816-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381931816</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Nice locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a high school reunion.  It's a fine hotel. No bells and whistles. It's clean. It's very convenient to the airport, Kingwood and Humble. Beds are fine. Everything worked. There is a very bright light in the parking lot that shined right into our room all night and the curtains don't block it out. Make sure you start your ice maker when you get to the room as there are no ice machines.  It doesn't knock you over with cleanliness but it's by no means dirty. It's just fine. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r350074178-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350074178</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Great value and pet friendly</t>
+  </si>
+  <si>
+    <t>In town for business.  The hotel is clean and well maintained.  Pricing is great and they offer complimentary laundry facilities.  The rooms are like renting a furnished house with numerous amenities offered.  There is a fully stocked cupboard that offers an array of food items for sale as well as a lending  locker that offers a variety of small appliances, extra dishes and games.  They also have a large DVD library with free use of DVD's that can be used in the player furnished in each room.  There is also a customer appreciation complimentary dinner offered on Tuesday evening.  Super friendly staff to assist with all your needs.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r344296487-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344296487</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>TOP notch Customer Service</t>
+  </si>
+  <si>
+    <t>This place rocks! It is a clean, extended stay hotel. We have been in and out of this hotel for the past month and will be here another month. While there have been some issues such as the hot tub heater not working, and some dryer issues---both of which have been addressed and are in the process of being remedied, the entire hotel staff is off the charts AWESOME!!! If we could give them a 10 star rating we would. Rayanna, Nasha, Mike &amp; Luiz have gone well above and beyond to make sure that our experience with them has been phenomenal. They take customer service to a whole different level of superiority. They have truly become like a second family to us while we have been in the process of relocating ourselves to this area. They know the area well; have made wonderful recommendations to us; have been phenomenal with scanning and emailing documents for us (In fact, Amit, the manager has ordered a new scanner to make the experience even better for future guests); making sure that all of our needs are tended for. If we ever need to put up guests at a hotel---this is THE place. GREAT value and customer service that raises the bar for ALL hotel experiences!  Thanks to everyone. "Ya'll".  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This place rocks! It is a clean, extended stay hotel. We have been in and out of this hotel for the past month and will be here another month. While there have been some issues such as the hot tub heater not working, and some dryer issues---both of which have been addressed and are in the process of being remedied, the entire hotel staff is off the charts AWESOME!!! If we could give them a 10 star rating we would. Rayanna, Nasha, Mike &amp; Luiz have gone well above and beyond to make sure that our experience with them has been phenomenal. They take customer service to a whole different level of superiority. They have truly become like a second family to us while we have been in the process of relocating ourselves to this area. They know the area well; have made wonderful recommendations to us; have been phenomenal with scanning and emailing documents for us (In fact, Amit, the manager has ordered a new scanner to make the experience even better for future guests); making sure that all of our needs are tended for. If we ever need to put up guests at a hotel---this is THE place. GREAT value and customer service that raises the bar for ALL hotel experiences!  Thanks to everyone. "Ya'll".  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r264559852-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264559852</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Super Clean; Great Value</t>
+  </si>
+  <si>
+    <t>I went to a 3-day seminar in Kingwood and was looking for a place to rest my head on the cheap because I'd be gone all day every day and didn't really care about amenities. To be honest, for the price, I wasn't expecting much, but I have to say this place was a gem. Not only was the staff super friendly, but the place was hospital clean. I am not kidding. I guess where they cut costs is the maid doesn't come every day, so if you need new towels (I didn't), you have to ask for them. I've always thought having a maid come every day was wasteful, so it didn't bother me in the least to make my own bed. Like I said. The room was an amazing deal, so who cares? Also, I had to buy a toothbrush because I forgot mine -- no courtesy toothbrush from the front desk. The little store in the lobby had toothbrush/toothpaste sets for $3, so no big deal. Honestly, I'd rather have to pay a little bit for stuff like that than pay more for the room. Again, this place was beautiful and clean with a friendly staff. Highly recommend. Will stay again if I ever have business in Kingwood.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I went to a 3-day seminar in Kingwood and was looking for a place to rest my head on the cheap because I'd be gone all day every day and didn't really care about amenities. To be honest, for the price, I wasn't expecting much, but I have to say this place was a gem. Not only was the staff super friendly, but the place was hospital clean. I am not kidding. I guess where they cut costs is the maid doesn't come every day, so if you need new towels (I didn't), you have to ask for them. I've always thought having a maid come every day was wasteful, so it didn't bother me in the least to make my own bed. Like I said. The room was an amazing deal, so who cares? Also, I had to buy a toothbrush because I forgot mine -- no courtesy toothbrush from the front desk. The little store in the lobby had toothbrush/toothpaste sets for $3, so no big deal. Honestly, I'd rather have to pay a little bit for stuff like that than pay more for the room. Again, this place was beautiful and clean with a friendly staff. Highly recommend. Will stay again if I ever have business in Kingwood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r249786731-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249786731</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located near Kingwood Medical Center and Memorial Hermann Surgical Hospital.  It is in a very quiet location away from the freeway.Bed was super comfortable and room was well furnished right down to the pots and pans in the kitchen.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r246168197-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246168197</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Nice quiet place</t>
+  </si>
+  <si>
+    <t>When I saw the place was close to a hospital I thought there would be a noise problem. However it could have been a cabin in the woods it was so quite. Nice welcoming staff even though I checked in at 11 pm. Place was very clean and quiet. I had a room with King size bed. It was fine for my one night stay would have been pretty small for an extended stay. Since it has a small kitchen in room, no Breakfast is provided. Very nice place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r220921860-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220921860</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Extremely Clean, Accommodating Staff and Dog Friendly</t>
+  </si>
+  <si>
+    <t>Manager went out of his way to accommodate me and my dogs. The staff was friendly. The rooms were EXTREMELY clean. Housekeeping should be commended. The ceilings in my first floor room were so tall, giving the effect of a larger room and allowing for a feeling of peace and being able to breathe. I loved it! They are tucked away from the highway but still accessible. Lots of grass and safe walking sidewalks for guests with dogs. It was great and the pool was very clean.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r214402113-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214402113</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>I definitely would recommend this hotel!</t>
+  </si>
+  <si>
+    <t>First off, I love the location because it is hidden and away from the freeway. My kids and I stayed here due to our air conditioner being out. The service was of top quality...nice..friendly and courteous. It is set up like an apartment with a small kitchen...silverware...dishes. ..coffee pot etc. They even give you a complimentary bag of popcorn which is too cute! The refrigerator..stovetop ..bathrooms and rooms were super clean.  They do not offer breakfast because you are able to cook everything yourself. I will certainly return!!! Excellent! !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r214157795-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214157795</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>very nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here the last two years after the company Christmas party. Nice large rooms, with a small kitchen area, and full size refrigerator. Always clean, and never a complaint. We also had quite a few people stay here when visiting the office from out of state, and never a complaint.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r187351143-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187351143</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>THIS IS A NICE CANDLEWOOD!!!</t>
+  </si>
+  <si>
+    <t>The hotel had a earth tone feel. Very calm a peaceful, a little noise above me, but it's a hotel and that normally happens. I seen a previous review about a girl at the front desk, I do believe its spelt Jillian, she was very nice to me &amp; informative. I was here for 4 days and would have never guessed housekeeping was once a week or that laundry was FREE! Cheap people are always rude I guess. Back to the hotel, my price per night was around 80$ that's not bad considering the surrounding hotels wanted like 120ish, now that crazy... But I would recommend this hotel over any other for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel had a earth tone feel. Very calm a peaceful, a little noise above me, but it's a hotel and that normally happens. I seen a previous review about a girl at the front desk, I do believe its spelt Jillian, she was very nice to me &amp; informative. I was here for 4 days and would have never guessed housekeeping was once a week or that laundry was FREE! Cheap people are always rude I guess. Back to the hotel, my price per night was around 80$ that's not bad considering the surrounding hotels wanted like 120ish, now that crazy... But I would recommend this hotel over any other for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r187265689-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187265689</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>More sour than suite</t>
+  </si>
+  <si>
+    <t>Probably makes sense if you need a convenient location to the nearby medical center and/or a hotel that is hard-to-find and isolated.My first, and probably last stay at a Candlewood.  An awkwardly placed work desk next to the stove and a paper-thin ceiling - heard every footstep from above.  No breakfast service.On a better note, it was clean and fairly new.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Kingwood, responded to this reviewResponded December 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2013</t>
+  </si>
+  <si>
+    <t>Probably makes sense if you need a convenient location to the nearby medical center and/or a hotel that is hard-to-find and isolated.My first, and probably last stay at a Candlewood.  An awkwardly placed work desk next to the stove and a paper-thin ceiling - heard every footstep from above.  No breakfast service.On a better note, it was clean and fairly new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r183558392-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183558392</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great Location for Medical Center!</t>
+  </si>
+  <si>
+    <t>I was traveling for a combined business/pleasure trip. This hotel was inexpensive, so I decided to try it (first Candlewood property I have stayed at). It was a very nice stay. While they don't offer breakfast in the mornings, they do have a collection of DVDs you can borrow (for free) and a small little snack shop where you can purchase various items (mostly food/hygiene) for a decent price. You can obviously get them cheaper if you go two miles down the road to the Walgreens, but the convenience is great for those who so choose.If you are coming to visit Houston, this is a bit out of the way. It is not a difficult drive into the city, but it is about 20 miles or so. It is quiet, hand I would recommend a car unless you are here to only visit the medical center that is directly across the road. The rooms are cozy and well equipped. I have stayed in a Marriott extended hotel previously, and while it was more expensive, this hotel was much better equipped kitchen-wise. I would definitely recommend this for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I was traveling for a combined business/pleasure trip. This hotel was inexpensive, so I decided to try it (first Candlewood property I have stayed at). It was a very nice stay. While they don't offer breakfast in the mornings, they do have a collection of DVDs you can borrow (for free) and a small little snack shop where you can purchase various items (mostly food/hygiene) for a decent price. You can obviously get them cheaper if you go two miles down the road to the Walgreens, but the convenience is great for those who so choose.If you are coming to visit Houston, this is a bit out of the way. It is not a difficult drive into the city, but it is about 20 miles or so. It is quiet, hand I would recommend a car unless you are here to only visit the medical center that is directly across the road. The rooms are cozy and well equipped. I have stayed in a Marriott extended hotel previously, and while it was more expensive, this hotel was much better equipped kitchen-wise. I would definitely recommend this for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r179074360-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179074360</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Wonderful and convenient place to stay</t>
+  </si>
+  <si>
+    <t>I just spent 2 weeks at this Candlewood Suites location and could not be happier. I was a little off the beaten path to get into but that made it quite, but convenient to access the 59 Freeway to head into Down town Houston or to the airport. Everyone was nice and helpful at the front desk and on Tuesday nights, they have free food, water, soda and beer as an customer appreciation night on them. The room was nice, neat and clean. It was an enjoyable stay. I would recommend it if the location and timing works for your stay or travels in the Houston, Texas area. And just to add, I felt safe and secure in this area...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I just spent 2 weeks at this Candlewood Suites location and could not be happier. I was a little off the beaten path to get into but that made it quite, but convenient to access the 59 Freeway to head into Down town Houston or to the airport. Everyone was nice and helpful at the front desk and on Tuesday nights, they have free food, water, soda and beer as an customer appreciation night on them. The room was nice, neat and clean. It was an enjoyable stay. I would recommend it if the location and timing works for your stay or travels in the Houston, Texas area. And just to add, I felt safe and secure in this area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r175905158-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175905158</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Experiance</t>
+  </si>
+  <si>
+    <t>Spent a few weeks here and enjoyed my stay. The rooms are well equipped, clean and as nice as you could expect. Parking was easy and plentiful. Pool was nice, clean and well maintained. The staff and management were a pleasure to work with and went out of their way to make sure my stay was a pleasurable one. One night a week the manager provided dinner and drinks for the guests. This is a very quite location, easy to get to yet not right on the interstate. I will certainly stay again if the opportunity presents itself.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r171898793-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171898793</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Tricky to find, but nice and comfortable</t>
+  </si>
+  <si>
+    <t>My friends had stayed here previously.  I have only stayed at one candlewood before, in Port Arthur a few years ago.  The kitchenette is convenient; coffee in the room is a necessity for me. The location is a bit hidden, but perhaps quieter for it. Friendly helpful staff made our night enjoyable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r148905390-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148905390</t>
+  </si>
+  <si>
+    <t>01/05/2013</t>
+  </si>
+  <si>
+    <t>Surprised by this hotel</t>
+  </si>
+  <si>
+    <t>My mom was in the local emergency room and I needed a room at the last minute.  I noticed this "unknown" hotel.  Was not disappointed.  The price was reasonable. The staff was pleasant.  But the most important thing was the sleep.  The bed and pillows were extremely comfortable.  My daughter &amp; I agreed we could have stayed a couple of nights just for the great sleep.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r144837895-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144837895</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>UNEXPLAINED POWER-OUTAGES only at Candlewood.</t>
+  </si>
+  <si>
+    <t>hard to request room supplies with housekeepers due to language burier .  my stay was during Dec 2011.  front desk staff was nice. just had issues with power outages which effect the temperature quickly in the small rooms. happen during 1 week stay off and on at all hrs. sometimes off for hrs other times off for only 10mins-1hr.  very confusing during the nights other near by businesses had powers and lights on.  became very annoying. also they didn't have working HBO channels.  OMG although we arrived before groups. we got stuck on 3rd floor with wedding groups and it was SOOOOO rowdy. people have to rest and get up early for work or have early flights.  no considerations when assigning rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>hard to request room supplies with housekeepers due to language burier .  my stay was during Dec 2011.  front desk staff was nice. just had issues with power outages which effect the temperature quickly in the small rooms. happen during 1 week stay off and on at all hrs. sometimes off for hrs other times off for only 10mins-1hr.  very confusing during the nights other near by businesses had powers and lights on.  became very annoying. also they didn't have working HBO channels.  OMG although we arrived before groups. we got stuck on 3rd floor with wedding groups and it was SOOOOO rowdy. people have to rest and get up early for work or have early flights.  no considerations when assigning rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r142334637-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142334637</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Good extended visit facilty, will use again</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for a couple of night on a weekend. It was very clean. The staff was very nice. As an extended stay concept the services are limited but that is what they advertise and was fine with us. It has complete kitchen facilities and a cantina where you can purchase basic items for snacks and breakfast. the only negative was the occupants in the unit above is seemed to have children who ran around early and late. The noise of the "footstep" was disturbing when it was quiet. Probably not a typical occurrence. The general facility was very quiet.we would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r130285231-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130285231</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Don't think i had one good night sleep in 3 weeks</t>
+  </si>
+  <si>
+    <t>First off, the suite is barely a suite.   Youre practically sleeping in your kitchen, there is no door to close and block out the noise of the refrigerator and it is VERY noisy.  
+Rooms only get cleaned once a week.  Now this might be the norm for extended stay hotels but not for me.  I like clean towels and my bed made for me, especially when I'm 5,000 miles away from my own bed.
+The hot tub was located outside my room, this was often used after midnight and not by the quietest of people.  Also, there was an exit outside my room that people would use all night.  Very, very annoying. 
+No breakfast.  Again, this is something I'm not used to, would've been nice to have some toast or something.  Yes I have a room that I can cook in but I don't particularly want to stink it and my clothes up (remember, no door between rooms).
+Pet friendly.  That doesn't mean leave your dogs in your room whilst you go out and they decide to fight with each other.  Yes, this happened.  And yes it was the room next to mine.  Contacted reception who couldn't really do much as the owner wasn't answering their phone.
+One positive is that its a quiet area.  
+The staff are really nice people too.  Its not their fault that I didn't enjoy my time there, they were very pleasant, polite and would...First off, the suite is barely a suite.   Youre practically sleeping in your kitchen, there is no door to close and block out the noise of the refrigerator and it is VERY noisy.  Rooms only get cleaned once a week.  Now this might be the norm for extended stay hotels but not for me.  I like clean towels and my bed made for me, especially when I'm 5,000 miles away from my own bed.The hot tub was located outside my room, this was often used after midnight and not by the quietest of people.  Also, there was an exit outside my room that people would use all night.  Very, very annoying. No breakfast.  Again, this is something I'm not used to, would've been nice to have some toast or something.  Yes I have a room that I can cook in but I don't particularly want to stink it and my clothes up (remember, no door between rooms).Pet friendly.  That doesn't mean leave your dogs in your room whilst you go out and they decide to fight with each other.  Yes, this happened.  And yes it was the room next to mine.  Contacted reception who couldn't really do much as the owner wasn't answering their phone.One positive is that its a quiet area.  The staff are really nice people too.  Its not their fault that I didn't enjoy my time there, they were very pleasant, polite and would always welcome me, morning and night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2012</t>
+  </si>
+  <si>
+    <t>First off, the suite is barely a suite.   Youre practically sleeping in your kitchen, there is no door to close and block out the noise of the refrigerator and it is VERY noisy.  
+Rooms only get cleaned once a week.  Now this might be the norm for extended stay hotels but not for me.  I like clean towels and my bed made for me, especially when I'm 5,000 miles away from my own bed.
+The hot tub was located outside my room, this was often used after midnight and not by the quietest of people.  Also, there was an exit outside my room that people would use all night.  Very, very annoying. 
+No breakfast.  Again, this is something I'm not used to, would've been nice to have some toast or something.  Yes I have a room that I can cook in but I don't particularly want to stink it and my clothes up (remember, no door between rooms).
+Pet friendly.  That doesn't mean leave your dogs in your room whilst you go out and they decide to fight with each other.  Yes, this happened.  And yes it was the room next to mine.  Contacted reception who couldn't really do much as the owner wasn't answering their phone.
+One positive is that its a quiet area.  
+The staff are really nice people too.  Its not their fault that I didn't enjoy my time there, they were very pleasant, polite and would...First off, the suite is barely a suite.   Youre practically sleeping in your kitchen, there is no door to close and block out the noise of the refrigerator and it is VERY noisy.  Rooms only get cleaned once a week.  Now this might be the norm for extended stay hotels but not for me.  I like clean towels and my bed made for me, especially when I'm 5,000 miles away from my own bed.The hot tub was located outside my room, this was often used after midnight and not by the quietest of people.  Also, there was an exit outside my room that people would use all night.  Very, very annoying. No breakfast.  Again, this is something I'm not used to, would've been nice to have some toast or something.  Yes I have a room that I can cook in but I don't particularly want to stink it and my clothes up (remember, no door between rooms).Pet friendly.  That doesn't mean leave your dogs in your room whilst you go out and they decide to fight with each other.  Yes, this happened.  And yes it was the room next to mine.  Contacted reception who couldn't really do much as the owner wasn't answering their phone.One positive is that its a quiet area.  The staff are really nice people too.  Its not their fault that I didn't enjoy my time there, they were very pleasant, polite and would always welcome me, morning and night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r125192516-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125192516</t>
+  </si>
+  <si>
+    <t>02/25/2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suites, Kingwood, TX</t>
+  </si>
+  <si>
+    <t>If you are traveling to this neighborhood, I would highly recommend this hotel. The staff is wonderful and the rooms are terrific.  If you like to have multiple restaurants within walking distance, this is not the hotel for you.  Denny's is in the neighborhood, but you have to drive a few miles (easy access) for more choices. I typically like to eat healthy on my business travel, so I stopped at the Kroger grocery store on my way in and purchased my groceries.  My room at Candlewood seemed to be brand new - full refrigerator, microwave, sink.  GREAT room for techies - a ton of convenient plug-in's everywhere.  Free Wi-Fi, nice desk....  The most convenient amenity I have ever experienced is the 24/7 little store.  They have necessities you can take and it's on the honor system - write down your room number and what you took and drop the slip in the box.  It will later be put on your tab.  The bathroom was nice, soft towels, hot hot water....They even have DVD's you can check out at the front desk free of charge.Very cool place - pleasantly surprised!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>If you are traveling to this neighborhood, I would highly recommend this hotel. The staff is wonderful and the rooms are terrific.  If you like to have multiple restaurants within walking distance, this is not the hotel for you.  Denny's is in the neighborhood, but you have to drive a few miles (easy access) for more choices. I typically like to eat healthy on my business travel, so I stopped at the Kroger grocery store on my way in and purchased my groceries.  My room at Candlewood seemed to be brand new - full refrigerator, microwave, sink.  GREAT room for techies - a ton of convenient plug-in's everywhere.  Free Wi-Fi, nice desk....  The most convenient amenity I have ever experienced is the 24/7 little store.  They have necessities you can take and it's on the honor system - write down your room number and what you took and drop the slip in the box.  It will later be put on your tab.  The bathroom was nice, soft towels, hot hot water....They even have DVD's you can check out at the front desk free of charge.Very cool place - pleasantly surprised!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r124171154-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124171154</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Just finished spending 12 nights at the Candlewood and found everything above expectations.The hotel was very clean and comfortable. The staff was very friendly. There are a number of eating establishments within a short drive or you could walk to the Denny's.This being an extended stay hotel you have to be ready for a couple of adjustments. They only clean your room once a week though if something is needed all you have to do is ask. There is also no complimentary breakfast provided. Your room comes with almost everything you need to make your own, from a toaster to fry pans, except the food items.If I find myself in the Kingwood area again I would definitely stay at the Candlewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Just finished spending 12 nights at the Candlewood and found everything above expectations.The hotel was very clean and comfortable. The staff was very friendly. There are a number of eating establishments within a short drive or you could walk to the Denny's.This being an extended stay hotel you have to be ready for a couple of adjustments. They only clean your room once a week though if something is needed all you have to do is ask. There is also no complimentary breakfast provided. Your room comes with almost everything you need to make your own, from a toaster to fry pans, except the food items.If I find myself in the Kingwood area again I would definitely stay at the Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r110739129-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>110739129</t>
+  </si>
+  <si>
+    <t>05/31/2011</t>
+  </si>
+  <si>
+    <t>nice place for a weekend stay</t>
+  </si>
+  <si>
+    <t>My husband and I checked into a very clean room.  Was disappointed as I asked for a king bed and received a queen size bed.  My personal preference is to have more services providedsuch as daily maid service.  In the fuute we will stay away from extended stay hotels.  The computers in the business center did not work and we could not print our boarding pass.   The airline did not hold our seats as we could not check in remotely at the hotel.  As a result we had to fly standby on a busy travel day.  A little thing like non functioning computers does not seem like a big issue but in our case it was very disruptive to our travel plans.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My husband and I checked into a very clean room.  Was disappointed as I asked for a king bed and received a queen size bed.  My personal preference is to have more services providedsuch as daily maid service.  In the fuute we will stay away from extended stay hotels.  The computers in the business center did not work and we could not print our boarding pass.   The airline did not hold our seats as we could not check in remotely at the hotel.  As a result we had to fly standby on a busy travel day.  A little thing like non functioning computers does not seem like a big issue but in our case it was very disruptive to our travel plans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r90841196-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>90841196</t>
+  </si>
+  <si>
+    <t>12/27/2010</t>
+  </si>
+  <si>
+    <t>A pleasant surprise in the Houston area...</t>
+  </si>
+  <si>
+    <t>I spent one night at this hotel on my way home from an extended business trip elsewhere in Texas- my flights were split between the 23rd and the 24th.  The reservation was made by someone in the travel division in the company I do business with; I was not familiar at all with this hotel brand.  I was a bit worried at first, since it is about a 10-15 minute drive from the airport with no traffic, and thought it would be difficult to drive to and from the airport- particularly on Christmas Eve morning.  My worries were unfounded.  The van driver, who is essentially on-call for the hotel, was excellent.  The hotel staff were pleasant and knowledgeable.  The room was nicely decorated and clearly almost new- not a nick or a scratch anywhere.  There was a large bathroom (shower/tub combo) and large closet, as well as a full-size refrigerator- plus cabinets stocked with all the basic dishes and such necessary for a long-term stay.  I had no problems sleeping at all- did not hear anyone in the neighboring rooms.  The location is a bit out of the way for someone such as I who was merely using it as a stop-over on a longer trip- there are many hotels closer to the airport.  However, I think it would be perfect for someone doing business in the Kingwood area.  The hotel is located a block or two away from the...I spent one night at this hotel on my way home from an extended business trip elsewhere in Texas- my flights were split between the 23rd and the 24th.  The reservation was made by someone in the travel division in the company I do business with; I was not familiar at all with this hotel brand.  I was a bit worried at first, since it is about a 10-15 minute drive from the airport with no traffic, and thought it would be difficult to drive to and from the airport- particularly on Christmas Eve morning.  My worries were unfounded.  The van driver, who is essentially on-call for the hotel, was excellent.  The hotel staff were pleasant and knowledgeable.  The room was nicely decorated and clearly almost new- not a nick or a scratch anywhere.  There was a large bathroom (shower/tub combo) and large closet, as well as a full-size refrigerator- plus cabinets stocked with all the basic dishes and such necessary for a long-term stay.  I had no problems sleeping at all- did not hear anyone in the neighboring rooms.  The location is a bit out of the way for someone such as I who was merely using it as a stop-over on a longer trip- there are many hotels closer to the airport.  However, I think it would be perfect for someone doing business in the Kingwood area.  The hotel is located a block or two away from the highway's access road- and thus very quiet (and not visible from the highway or the access road)- but a short drive to many stores and restaurants.  The price was right, as well.  I wish this brand had a location where I regularly do business!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I spent one night at this hotel on my way home from an extended business trip elsewhere in Texas- my flights were split between the 23rd and the 24th.  The reservation was made by someone in the travel division in the company I do business with; I was not familiar at all with this hotel brand.  I was a bit worried at first, since it is about a 10-15 minute drive from the airport with no traffic, and thought it would be difficult to drive to and from the airport- particularly on Christmas Eve morning.  My worries were unfounded.  The van driver, who is essentially on-call for the hotel, was excellent.  The hotel staff were pleasant and knowledgeable.  The room was nicely decorated and clearly almost new- not a nick or a scratch anywhere.  There was a large bathroom (shower/tub combo) and large closet, as well as a full-size refrigerator- plus cabinets stocked with all the basic dishes and such necessary for a long-term stay.  I had no problems sleeping at all- did not hear anyone in the neighboring rooms.  The location is a bit out of the way for someone such as I who was merely using it as a stop-over on a longer trip- there are many hotels closer to the airport.  However, I think it would be perfect for someone doing business in the Kingwood area.  The hotel is located a block or two away from the...I spent one night at this hotel on my way home from an extended business trip elsewhere in Texas- my flights were split between the 23rd and the 24th.  The reservation was made by someone in the travel division in the company I do business with; I was not familiar at all with this hotel brand.  I was a bit worried at first, since it is about a 10-15 minute drive from the airport with no traffic, and thought it would be difficult to drive to and from the airport- particularly on Christmas Eve morning.  My worries were unfounded.  The van driver, who is essentially on-call for the hotel, was excellent.  The hotel staff were pleasant and knowledgeable.  The room was nicely decorated and clearly almost new- not a nick or a scratch anywhere.  There was a large bathroom (shower/tub combo) and large closet, as well as a full-size refrigerator- plus cabinets stocked with all the basic dishes and such necessary for a long-term stay.  I had no problems sleeping at all- did not hear anyone in the neighboring rooms.  The location is a bit out of the way for someone such as I who was merely using it as a stop-over on a longer trip- there are many hotels closer to the airport.  However, I think it would be perfect for someone doing business in the Kingwood area.  The hotel is located a block or two away from the highway's access road- and thus very quiet (and not visible from the highway or the access road)- but a short drive to many stores and restaurants.  The price was right, as well.  I wish this brand had a location where I regularly do business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r66713935-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66713935</t>
+  </si>
+  <si>
+    <t>06/07/2010</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>When I booked this hotel, I had no idea that it was a brand new property. Mr wife and I were literally the first people to sleep in our room.
+That being said, there are definately some pluses and minuses to staying at a brand new property.
+First the pluses. 
+The room was obviously new. New sheets, new pots and pans, new everything. The room came standard with a flat screen tv and dvd/cd player, which was nice. The hotel offered a nice selection of movies at the front desk, which guests could use for free! 
+The staff were super nice. They gave us directions all over town, and one of the night auditors let us into the pool way past its closing time for a little midnight swim, which we really appreciated.
+The location is great. Just a 2 minute drive from the highway, but seculded in a quiet area away from road noise and nightlife.
+Now the minuses.
+Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.
+The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions...When I booked this hotel, I had no idea that it was a brand new property. Mr wife and I were literally the first people to sleep in our room.That being said, there are definately some pluses and minuses to staying at a brand new property.First the pluses. The room was obviously new. New sheets, new pots and pans, new everything. The room came standard with a flat screen tv and dvd/cd player, which was nice. The hotel offered a nice selection of movies at the front desk, which guests could use for free! The staff were super nice. They gave us directions all over town, and one of the night auditors let us into the pool way past its closing time for a little midnight swim, which we really appreciated.The location is great. Just a 2 minute drive from the highway, but seculded in a quiet area away from road noise and nightlife.Now the minuses.Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions indicating as such, and the timer wasn't exactly close to the stove. The refridgerator also wouldn't make ice that fast, which was pretty inconvientent when we had guests over. The worst part was the washing machine, which after 3 nights, we still couldn't figure out how to use correctly...Which brings me to my last complaint, the inexperience of the staff. Although all of them were really friendly, it seemed as though they didn't know how the hotel functioned. When we called to ask about the dishwasher, the front desk person told my wife that not only did he not know how to operate it, but that he hadn't actually been in any of the rooms! It was also sort of a struggle to get directions out of the staff sometimes, which i think should be step one for customer service at a hotel.All in all, we had a great stay though. I hope that the Candlewood can keep whats good about it and work on the little blips that come with all new properties. I would love to return and see.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>When I booked this hotel, I had no idea that it was a brand new property. Mr wife and I were literally the first people to sleep in our room.
+That being said, there are definately some pluses and minuses to staying at a brand new property.
+First the pluses. 
+The room was obviously new. New sheets, new pots and pans, new everything. The room came standard with a flat screen tv and dvd/cd player, which was nice. The hotel offered a nice selection of movies at the front desk, which guests could use for free! 
+The staff were super nice. They gave us directions all over town, and one of the night auditors let us into the pool way past its closing time for a little midnight swim, which we really appreciated.
+The location is great. Just a 2 minute drive from the highway, but seculded in a quiet area away from road noise and nightlife.
+Now the minuses.
+Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.
+The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions...When I booked this hotel, I had no idea that it was a brand new property. Mr wife and I were literally the first people to sleep in our room.That being said, there are definately some pluses and minuses to staying at a brand new property.First the pluses. The room was obviously new. New sheets, new pots and pans, new everything. The room came standard with a flat screen tv and dvd/cd player, which was nice. The hotel offered a nice selection of movies at the front desk, which guests could use for free! The staff were super nice. They gave us directions all over town, and one of the night auditors let us into the pool way past its closing time for a little midnight swim, which we really appreciated.The location is great. Just a 2 minute drive from the highway, but seculded in a quiet area away from road noise and nightlife.Now the minuses.Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions indicating as such, and the timer wasn't exactly close to the stove. The refridgerator also wouldn't make ice that fast, which was pretty inconvientent when we had guests over. The worst part was the washing machine, which after 3 nights, we still couldn't figure out how to use correctly...Which brings me to my last complaint, the inexperience of the staff. Although all of them were really friendly, it seemed as though they didn't know how the hotel functioned. When we called to ask about the dishwasher, the front desk person told my wife that not only did he not know how to operate it, but that he hadn't actually been in any of the rooms! It was also sort of a struggle to get directions out of the staff sometimes, which i think should be step one for customer service at a hotel.All in all, we had a great stay though. I hope that the Candlewood can keep whats good about it and work on the little blips that come with all new properties. I would love to return and see.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1121,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1153,1822 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_70.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_70.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r596493959-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1558225</t>
+  </si>
+  <si>
+    <t>596493959</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>a perfect place nestled in trees just off the freeway. The staff is wonderful, the location is perfect. Pet friendly is a big plus. The pool is quite and serene very relaxing. it is located right behind a hospital.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r529232061-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529232061</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>They treat you like family ❤️</t>
+  </si>
+  <si>
+    <t>We were there because we lost everything in Harvey, we were there for a month and was my pleasure to be in that location cause they courtesy is outstanding, they always have a smile and an answer for all of your needs. I felt like home, all services included, everything we need they had it, very clean and organize in all aspects, the price is affordable I highly recommend this hotel</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r482895157-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1558225</t>
-  </si>
-  <si>
     <t>482895157</t>
   </si>
   <si>
@@ -225,7 +267,37 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r409063657-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409063657</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel except</t>
+  </si>
+  <si>
+    <t>This hotel is nice very clean but watch out for "guests " Bill and his wife Karen they beg for money or your points they fight in lobby and common areas are both so rude and disrespectful to everyone he sleeps in the lobby and he doesn't shower they have stayed here for over a year and a half it would have been a wonderful stay if I hadn't had to deal with them</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r399805602-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399805602</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Pretty nice!</t>
+  </si>
+  <si>
+    <t>Stayed here with our family. It was nice! My suggestions would be to get king sized beds in the hotel and find a more convenient way to exchange towels! The front desk staff was friendly and helpful! The coffee was mediocre at best! Nearby restaurants were handy and saved long drives! Give it a try!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r381931816-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
@@ -288,6 +360,52 @@
     <t>This place rocks! It is a clean, extended stay hotel. We have been in and out of this hotel for the past month and will be here another month. While there have been some issues such as the hot tub heater not working, and some dryer issues---both of which have been addressed and are in the process of being remedied, the entire hotel staff is off the charts AWESOME!!! If we could give them a 10 star rating we would. Rayanna, Nasha, Mike &amp; Luiz have gone well above and beyond to make sure that our experience with them has been phenomenal. They take customer service to a whole different level of superiority. They have truly become like a second family to us while we have been in the process of relocating ourselves to this area. They know the area well; have made wonderful recommendations to us; have been phenomenal with scanning and emailing documents for us (In fact, Amit, the manager has ordered a new scanner to make the experience even better for future guests); making sure that all of our needs are tended for. If we ever need to put up guests at a hotel---this is THE place. GREAT value and customer service that raises the bar for ALL hotel experiences!  Thanks to everyone. "Ya'll".  :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r341780896-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341780896</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Great for overnight or extended stay, Excellent Value!</t>
+  </si>
+  <si>
+    <t>Located walking distance from the Kingwood medical center, we stayed here for three nights for a medical issue.  The hotel is located behind the Holiday Inn Express, away from the freeway.  Our room was clean, quiet and and very comfortable.  All rooms are fitted with kitchen facilities and the pantry downstairs is fully equipped with an excellent microwave food and beverage selection.   Coffee, tea and two bags of microwave popcorn are complimentary.  There are also good restaurants and grocery stores within a mile radius.  Washing machines and dryers are complimentary and there is an excellent free DVD selection.  Hotel service staff were very helpful with all of our requests.  The pool and hot tub are very nice and well maintained and the fitness center is fully equipped.We had previously stayed at the Holiday Inn Express next door, but Candlewood Suites is much better overall and slightly cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Located walking distance from the Kingwood medical center, we stayed here for three nights for a medical issue.  The hotel is located behind the Holiday Inn Express, away from the freeway.  Our room was clean, quiet and and very comfortable.  All rooms are fitted with kitchen facilities and the pantry downstairs is fully equipped with an excellent microwave food and beverage selection.   Coffee, tea and two bags of microwave popcorn are complimentary.  There are also good restaurants and grocery stores within a mile radius.  Washing machines and dryers are complimentary and there is an excellent free DVD selection.  Hotel service staff were very helpful with all of our requests.  The pool and hot tub are very nice and well maintained and the fitness center is fully equipped.We had previously stayed at the Holiday Inn Express next door, but Candlewood Suites is much better overall and slightly cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r303024722-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303024722</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Great Extended Stay</t>
+  </si>
+  <si>
+    <t>We chose the Candlewood Suites in Kingwood when we put our house on the market and needed a pet friendly place to stay.  2 German Shepherds do not make it easy to stay in a home you are trying to keep "viewing ready" if you know what I mean!  When my husband found out about Candlewood in Kingwood he went over to talk to the staff about an extended stay and our "fur babies".  The Sales Manager gave him a quick tour of the place and provided their policies for pets.  He decided on the spot to book our reservation.  We checked in a couple of weeks later and have been there almost 2 weeks out of our 3 month stay, things couldn't be better!  
+The entire hotel staff is super friendly and helpful.  We needed to scan some documents but the business services area only had a printer.  Donna, at the front desk, scanned and emailed them for us.  
+They have a gas grill and provide utensils so you can cook under the pavilion.  We met some of our "neigbors" there over the weekend and had a great time, cooking and visiting.  Our queen studio is cozy but plenty big for our needs and our GSD's have settled in like it's home, when they are happy, we are happy.  Overall I can't imagine a better place to be for an extended stay hotel, free dinner on Tuesdays, free laundry,...We chose the Candlewood Suites in Kingwood when we put our house on the market and needed a pet friendly place to stay.  2 German Shepherds do not make it easy to stay in a home you are trying to keep "viewing ready" if you know what I mean!  When my husband found out about Candlewood in Kingwood he went over to talk to the staff about an extended stay and our "fur babies".  The Sales Manager gave him a quick tour of the place and provided their policies for pets.  He decided on the spot to book our reservation.  We checked in a couple of weeks later and have been there almost 2 weeks out of our 3 month stay, things couldn't be better!  The entire hotel staff is super friendly and helpful.  We needed to scan some documents but the business services area only had a printer.  Donna, at the front desk, scanned and emailed them for us.  They have a gas grill and provide utensils so you can cook under the pavilion.  We met some of our "neigbors" there over the weekend and had a great time, cooking and visiting.  Our queen studio is cozy but plenty big for our needs and our GSD's have settled in like it's home, when they are happy, we are happy.  Overall I can't imagine a better place to be for an extended stay hotel, free dinner on Tuesdays, free laundry, free wifi, lending locker for kitchen necessities, a DVD library to borrow from, once a week maid service and most importantly super comfortable beds...everything is great and we will definitely stay at Candlewood Suites in the future!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We chose the Candlewood Suites in Kingwood when we put our house on the market and needed a pet friendly place to stay.  2 German Shepherds do not make it easy to stay in a home you are trying to keep "viewing ready" if you know what I mean!  When my husband found out about Candlewood in Kingwood he went over to talk to the staff about an extended stay and our "fur babies".  The Sales Manager gave him a quick tour of the place and provided their policies for pets.  He decided on the spot to book our reservation.  We checked in a couple of weeks later and have been there almost 2 weeks out of our 3 month stay, things couldn't be better!  
+The entire hotel staff is super friendly and helpful.  We needed to scan some documents but the business services area only had a printer.  Donna, at the front desk, scanned and emailed them for us.  
+They have a gas grill and provide utensils so you can cook under the pavilion.  We met some of our "neigbors" there over the weekend and had a great time, cooking and visiting.  Our queen studio is cozy but plenty big for our needs and our GSD's have settled in like it's home, when they are happy, we are happy.  Overall I can't imagine a better place to be for an extended stay hotel, free dinner on Tuesdays, free laundry,...We chose the Candlewood Suites in Kingwood when we put our house on the market and needed a pet friendly place to stay.  2 German Shepherds do not make it easy to stay in a home you are trying to keep "viewing ready" if you know what I mean!  When my husband found out about Candlewood in Kingwood he went over to talk to the staff about an extended stay and our "fur babies".  The Sales Manager gave him a quick tour of the place and provided their policies for pets.  He decided on the spot to book our reservation.  We checked in a couple of weeks later and have been there almost 2 weeks out of our 3 month stay, things couldn't be better!  The entire hotel staff is super friendly and helpful.  We needed to scan some documents but the business services area only had a printer.  Donna, at the front desk, scanned and emailed them for us.  They have a gas grill and provide utensils so you can cook under the pavilion.  We met some of our "neigbors" there over the weekend and had a great time, cooking and visiting.  Our queen studio is cozy but plenty big for our needs and our GSD's have settled in like it's home, when they are happy, we are happy.  Overall I can't imagine a better place to be for an extended stay hotel, free dinner on Tuesdays, free laundry, free wifi, lending locker for kitchen necessities, a DVD library to borrow from, once a week maid service and most importantly super comfortable beds...everything is great and we will definitely stay at Candlewood Suites in the future!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r264559852-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,6 +460,51 @@
     <t>When I saw the place was close to a hospital I thought there would be a noise problem. However it could have been a cabin in the woods it was so quite. Nice welcoming staff even though I checked in at 11 pm. Place was very clean and quiet. I had a room with King size bed. It was fine for my one night stay would have been pretty small for an extended stay. Since it has a small kitchen in room, no Breakfast is provided. Very nice place</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r245415947-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245415947</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Falls short but not terrible</t>
+  </si>
+  <si>
+    <t>Let me start with the good stuff:Free parking &amp; wifi, 24/7 coffee in the lobby, free access to gym/pool/hot-tub. Located right off of 59.Clean room. Has everything you need (refrigerator, microwave, stove, utensils, ironing supply etc.)Here's where it falls short:Curtains/drapes dont close all the way limiting privacy on ground level rooms.They claim to be a pet-free facility but the room opposite mine had a dog that would start barking at 5 in the morning (its an extended stay facility so people actually live here... for an extended time).Treadmill in the corner in the gym is far from the light sensor so 10 minutes into your run (if you run at hotels), the lights go off. Not very safe, I'm guessing.The only place close by is a Denny's. No place to shop for day-to-day stuff (water etc.)Rooms are cleaned on a weekly basis (which is OK if you're staying for a long period, but not if you're staying a few nights).In summary, it's an OK place to stay. Clean with free amenities. But if you have dogs on the premises that start waking everyone up at 5am every morning, don't claim to be a pet-free facility and have a separate section for people with pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Kingwood, responded to this reviewResponded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Let me start with the good stuff:Free parking &amp; wifi, 24/7 coffee in the lobby, free access to gym/pool/hot-tub. Located right off of 59.Clean room. Has everything you need (refrigerator, microwave, stove, utensils, ironing supply etc.)Here's where it falls short:Curtains/drapes dont close all the way limiting privacy on ground level rooms.They claim to be a pet-free facility but the room opposite mine had a dog that would start barking at 5 in the morning (its an extended stay facility so people actually live here... for an extended time).Treadmill in the corner in the gym is far from the light sensor so 10 minutes into your run (if you run at hotels), the lights go off. Not very safe, I'm guessing.The only place close by is a Denny's. No place to shop for day-to-day stuff (water etc.)Rooms are cleaned on a weekly basis (which is OK if you're staying for a long period, but not if you're staying a few nights).In summary, it's an OK place to stay. Clean with free amenities. But if you have dogs on the premises that start waking everyone up at 5am every morning, don't claim to be a pet-free facility and have a separate section for people with pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r222264416-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222264416</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>So far so good</t>
+  </si>
+  <si>
+    <t>First night...the room is clean and spacious. The decor is nice. The air conditioner works and there is an ice maker in the fridge.  I have found no pans, but I travel with my own. The front desk guy was very nice !! My only concern is that the drapes are decorative only AND DO NOT CLOSE, only the sheers close...they are no match for the very bright Texas sun...which creates quite a glare on the television...and probably also means no sleeping late in the morning...have not explored the area yet !! They totally had me at FREE LAUNDRY....</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r220921860-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -393,7 +556,43 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r212147991-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212147991</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Visiting Texas, from New York ,Grandson's birth</t>
+  </si>
+  <si>
+    <t>This place is amazing, besides the staff being Phenomenal, they were genuinely concerned about your stay. Onsite they have laundry facilities and gym, a little general store which has everything you could possibly need! Computer access a spacious living room area, if you didn't want to sit in your room ! Swimming pool , patio, with BBQ grill! GREAT FOR FAMILIES!The rooms are set up as little studio apartments , I was so comfortable . I can't say enough about the place,</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r193008180-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193008180</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Nice and Clean away from the freeway/ In the Medical District</t>
+  </si>
+  <si>
+    <t>This paticular hotel is very nice and clean the front desk staff are very friendly, I had a studio room which is plenty for the 2 nites I was staying. What people have to remember this is a extended stay hotel you will NOT get maid service everyday...But if you need something such as towels or kleenex etc you can always go to the front desk.They have a free laundry room you can purchase soap or bring your own.The workout room is clean has a couple of treadmills seemed to work good,And a few other machines.They have a little store on site whic is stocked to the rim with a nice selection,There are some nice places to eat and a little shopping mall less than a mile away.With some very nice stores.and a bigger shopping mall with Macys and Dillards so there is plenty to do close by.This Candlewood is not visable from the freeway it sets back by the Hospital and clinics that is not a bad thing cuts down on noise.Will stay here again when return to the area,MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This paticular hotel is very nice and clean the front desk staff are very friendly, I had a studio room which is plenty for the 2 nites I was staying. What people have to remember this is a extended stay hotel you will NOT get maid service everyday...But if you need something such as towels or kleenex etc you can always go to the front desk.They have a free laundry room you can purchase soap or bring your own.The workout room is clean has a couple of treadmills seemed to work good,And a few other machines.They have a little store on site whic is stocked to the rim with a nice selection,There are some nice places to eat and a little shopping mall less than a mile away.With some very nice stores.and a bigger shopping mall with Macys and Dillards so there is plenty to do close by.This Candlewood is not visable from the freeway it sets back by the Hospital and clinics that is not a bad thing cuts down on noise.Will stay here again when return to the area,More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r187351143-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
@@ -459,6 +658,51 @@
     <t>I was traveling for a combined business/pleasure trip. This hotel was inexpensive, so I decided to try it (first Candlewood property I have stayed at). It was a very nice stay. While they don't offer breakfast in the mornings, they do have a collection of DVDs you can borrow (for free) and a small little snack shop where you can purchase various items (mostly food/hygiene) for a decent price. You can obviously get them cheaper if you go two miles down the road to the Walgreens, but the convenience is great for those who so choose.If you are coming to visit Houston, this is a bit out of the way. It is not a difficult drive into the city, but it is about 20 miles or so. It is quiet, hand I would recommend a car unless you are here to only visit the medical center that is directly across the road. The rooms are cozy and well equipped. I have stayed in a Marriott extended hotel previously, and while it was more expensive, this hotel was much better equipped kitchen-wise. I would definitely recommend this for a longer stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r182357643-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182357643</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>BIG BANG FOR YOUR $$$!</t>
+  </si>
+  <si>
+    <t>Room was very cozy, felt right at home. I am not from Houston and was a bit lost every day heading to different locations, the young lady named Kelsey was very helpful at about 6am durning weekdays always helped me get directions on to were I was going, never got lost or late arriving. The hot tub was out of order but it was really cold out anyway. They had food and drinks out for the whole hotel on Tuesday and the guests in the lobby were so funny and very nice, &amp; the woman at the front desk at that time named shameka was very nice and helpful. I will stay here again!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very cozy, felt right at home. I am not from Houston and was a bit lost every day heading to different locations, the young lady named Kelsey was very helpful at about 6am durning weekdays always helped me get directions on to were I was going, never got lost or late arriving. The hot tub was out of order but it was really cold out anyway. They had food and drinks out for the whole hotel on Tuesday and the guests in the lobby were so funny and very nice, &amp; the woman at the front desk at that time named shameka was very nice and helpful. I will stay here again!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r179483652-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179483652</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Horrible management</t>
+  </si>
+  <si>
+    <t>The management here sucks. The pool closes at 10pm (which Ive never heard of). They don't have any breakfast in the morning. All they have is coffee and there was no decaf. The managers are some rude people. The rooms aren't suites, they are the same size as any other room. The prices are outrageous for what you get. Horrible stayMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Kingwood, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>The management here sucks. The pool closes at 10pm (which Ive never heard of). They don't have any breakfast in the morning. All they have is coffee and there was no decaf. The managers are some rude people. The rooms aren't suites, they are the same size as any other room. The prices are outrageous for what you get. Horrible stayMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r179074360-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -474,9 +718,6 @@
     <t>I just spent 2 weeks at this Candlewood Suites location and could not be happier. I was a little off the beaten path to get into but that made it quite, but convenient to access the 59 Freeway to head into Down town Houston or to the airport. Everyone was nice and helpful at the front desk and on Tuesday nights, they have free food, water, soda and beer as an customer appreciation night on them. The room was nice, neat and clean. It was an enjoyable stay. I would recommend it if the location and timing works for your stay or travels in the Houston, Texas area. And just to add, I felt safe and secure in this area...MoreShow less</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>I just spent 2 weeks at this Candlewood Suites location and could not be happier. I was a little off the beaten path to get into but that made it quite, but convenient to access the 59 Freeway to head into Down town Houston or to the airport. Everyone was nice and helpful at the front desk and on Tuesday nights, they have free food, water, soda and beer as an customer appreciation night on them. The room was nice, neat and clean. It was an enjoyable stay. I would recommend it if the location and timing works for your stay or travels in the Houston, Texas area. And just to add, I felt safe and secure in this area...More</t>
   </si>
   <si>
@@ -513,6 +754,42 @@
     <t>My friends had stayed here previously.  I have only stayed at one candlewood before, in Port Arthur a few years ago.  The kitchenette is convenient; coffee in the room is a necessity for me. The location is a bit hidden, but perhaps quieter for it. Friendly helpful staff made our night enjoyable.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r162128705-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162128705</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Quiet and Friendly</t>
+  </si>
+  <si>
+    <t>I stay at this location several times per year for both business and personal.  It is a block off Hwy 59 and behind the hospital so I don't hear the road noise.  It is always nice, friendly, comfortable and quiet.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r153057506-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153057506</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay is A-ok</t>
+  </si>
+  <si>
+    <t>My family and I had the pleasure of spending two nights at the Candlewood Suites Extended Stay hotel in Kingwood, Texas this past weekend.  Found the staff friendly the rooms and common areas in very good condition and very clean. Pantry well stocked and prices in the pantry were fair, usually I see jacked up prices.  Would of like to seen the pool open, but hey it is February so I do not expect it to be open.  Good workout room and free Laundry right next to the work out room.  Will book again even if if it is just for two nights.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r148905390-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -568,6 +845,51 @@
   </si>
   <si>
     <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r138001300-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138001300</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
+    <t>I just want to warn you about the General Manager and the staff at the Hotel.  Make sure you ask at the desk if there is any charges that are additionally going on your card.  They wait untill your checked out and gone before they add ridiculous charges on your card without any notice and/or explanation. When I called for an explanation they did not call me back as promised. If it was their money they would have called right away.  I am just wondering how many victims there are out there.  All the reviews I have read come back to one important statement "the inexperience of the staff" and of course their performance is directly related to the upper management especially the General Manager.  When I did confront the GM about the ridiculous amount of the charge he was condescending with an attitude that automatically turns me away from ever renting a room in this hotel.  They take advatage of customers and you know God has a special place for people who do that. The Hotel is very nice but the management casts a dark shadow on your stay there. The GM stated to me that He doesn't care wether I stay at the Hotel when I told him I have other choices through my Company.  That is the worst statement and business sense I have heard from a Manager.  I would think twice about booking a room at...I just want to warn you about the General Manager and the staff at the Hotel.  Make sure you ask at the desk if there is any charges that are additionally going on your card.  They wait untill your checked out and gone before they add ridiculous charges on your card without any notice and/or explanation. When I called for an explanation they did not call me back as promised. If it was their money they would have called right away.  I am just wondering how many victims there are out there.  All the reviews I have read come back to one important statement "the inexperience of the staff" and of course their performance is directly related to the upper management especially the General Manager.  When I did confront the GM about the ridiculous amount of the charge he was condescending with an attitude that automatically turns me away from ever renting a room in this hotel.  They take advatage of customers and you know God has a special place for people who do that. The Hotel is very nice but the management casts a dark shadow on your stay there. The GM stated to me that He doesn't care wether I stay at the Hotel when I told him I have other choices through my Company.  That is the worst statement and business sense I have heard from a Manager.  I would think twice about booking a room at this hotel.  You pay for the $10.00 a night savings. It's not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Kingwood, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>I just want to warn you about the General Manager and the staff at the Hotel.  Make sure you ask at the desk if there is any charges that are additionally going on your card.  They wait untill your checked out and gone before they add ridiculous charges on your card without any notice and/or explanation. When I called for an explanation they did not call me back as promised. If it was their money they would have called right away.  I am just wondering how many victims there are out there.  All the reviews I have read come back to one important statement "the inexperience of the staff" and of course their performance is directly related to the upper management especially the General Manager.  When I did confront the GM about the ridiculous amount of the charge he was condescending with an attitude that automatically turns me away from ever renting a room in this hotel.  They take advatage of customers and you know God has a special place for people who do that. The Hotel is very nice but the management casts a dark shadow on your stay there. The GM stated to me that He doesn't care wether I stay at the Hotel when I told him I have other choices through my Company.  That is the worst statement and business sense I have heard from a Manager.  I would think twice about booking a room at...I just want to warn you about the General Manager and the staff at the Hotel.  Make sure you ask at the desk if there is any charges that are additionally going on your card.  They wait untill your checked out and gone before they add ridiculous charges on your card without any notice and/or explanation. When I called for an explanation they did not call me back as promised. If it was their money they would have called right away.  I am just wondering how many victims there are out there.  All the reviews I have read come back to one important statement "the inexperience of the staff" and of course their performance is directly related to the upper management especially the General Manager.  When I did confront the GM about the ridiculous amount of the charge he was condescending with an attitude that automatically turns me away from ever renting a room in this hotel.  They take advatage of customers and you know God has a special place for people who do that. The Hotel is very nice but the management casts a dark shadow on your stay there. The GM stated to me that He doesn't care wether I stay at the Hotel when I told him I have other choices through my Company.  That is the worst statement and business sense I have heard from a Manager.  I would think twice about booking a room at this hotel.  You pay for the $10.00 a night savings. It's not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r134665075-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134665075</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Very clean. Very friendly. Serve dinner once a week with choice of soda, wine, or beer. Yes the kitchen is right there but its a hotel not apartment. You can take your dirty towels/sheets to desk and exchange anytime; they clean once a week. They give you toothpaste, trashbags, papertowels anytime you ask. laundry room and excersise room nice. Small area to buy snacks and get free coffee. Very nice.....</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r130285231-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
@@ -649,6 +971,45 @@
   </si>
   <si>
     <t>Just finished spending 12 nights at the Candlewood and found everything above expectations.The hotel was very clean and comfortable. The staff was very friendly. There are a number of eating establishments within a short drive or you could walk to the Denny's.This being an extended stay hotel you have to be ready for a couple of adjustments. They only clean your room once a week though if something is needed all you have to do is ask. There is also no complimentary breakfast provided. Your room comes with almost everything you need to make your own, from a toaster to fry pans, except the food items.If I find myself in the Kingwood area again I would definitely stay at the Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r118425197-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118425197</t>
+  </si>
+  <si>
+    <t>09/21/2011</t>
+  </si>
+  <si>
+    <t>Lovely extended stay experience</t>
+  </si>
+  <si>
+    <t>After reading through the reviews I felt confident that this was the place to stay for my week long visit near family; I was not disappointed.  The location is excellent in a quiet area away from the noise of traffice.  The staff was helpful and friendly, everything was clean and well cared for.  My room was pleasant, roomy, the bed was especially comfortable with linens that felt like new; I even liked the color scheme.  The kitchen was especially nice with everything I would have needed if I were to cook a full meal.  The bathroom was large, a great shower, and soft fluffy towels. Since maid service is scheduled for extended stays, not once was I awakened early with cleaning personnel knocking on my door.   Thank you for a lovely stay.  I will be back on another visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>After reading through the reviews I felt confident that this was the place to stay for my week long visit near family; I was not disappointed.  The location is excellent in a quiet area away from the noise of traffice.  The staff was helpful and friendly, everything was clean and well cared for.  My room was pleasant, roomy, the bed was especially comfortable with linens that felt like new; I even liked the color scheme.  The kitchen was especially nice with everything I would have needed if I were to cook a full meal.  The bathroom was large, a great shower, and soft fluffy towels. Since maid service is scheduled for extended stays, not once was I awakened early with cleaning personnel knocking on my door.   Thank you for a lovely stay.  I will be back on another visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r117042724-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117042724</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel, We will be back!</t>
+  </si>
+  <si>
+    <t>All I can say is: Great Rooms, Great Rates, and a Great Staff that makes you feel like you are at home. We will stay here anytime we are back in the area.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r110739129-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
@@ -728,6 +1089,27 @@
 Now the minuses.
 Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.
 The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions...When I booked this hotel, I had no idea that it was a brand new property. Mr wife and I were literally the first people to sleep in our room.That being said, there are definately some pluses and minuses to staying at a brand new property.First the pluses. The room was obviously new. New sheets, new pots and pans, new everything. The room came standard with a flat screen tv and dvd/cd player, which was nice. The hotel offered a nice selection of movies at the front desk, which guests could use for free! The staff were super nice. They gave us directions all over town, and one of the night auditors let us into the pool way past its closing time for a little midnight swim, which we really appreciated.The location is great. Just a 2 minute drive from the highway, but seculded in a quiet area away from road noise and nightlife.Now the minuses.Because the hotel was brand new, our room had obviously been freshly painted and caulked only a few days prior, and the fumes were still a little strong, especially the first night when I got a headache.The kitchen was a little odd. In order to turn the stove top on, you had to set a timer first, so that you wouldn't leave it on and cause a fire. That all would have been fine, except their was no directions indicating as such, and the timer wasn't exactly close to the stove. The refridgerator also wouldn't make ice that fast, which was pretty inconvientent when we had guests over. The worst part was the washing machine, which after 3 nights, we still couldn't figure out how to use correctly...Which brings me to my last complaint, the inexperience of the staff. Although all of them were really friendly, it seemed as though they didn't know how the hotel functioned. When we called to ask about the dishwasher, the front desk person told my wife that not only did he not know how to operate it, but that he hadn't actually been in any of the rooms! It was also sort of a struggle to get directions out of the staff sometimes, which i think should be step one for customer service at a hotel.All in all, we had a great stay though. I hope that the Candlewood can keep whats good about it and work on the little blips that come with all new properties. I would love to return and see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1558225-r66666375-Candlewood_Suites_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66666375</t>
+  </si>
+  <si>
+    <t>06/06/2010</t>
+  </si>
+  <si>
+    <t>Great NEW hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for a week while visiting family in the Kingwood/Humble area.  The hotel is very new (2-1/2 months when we arrived) so some of the staff still seemed to stumble a bit, but the hotel was great!The staff was all very pleasant.  The entire property was very clean.  Our room was great.  I recommend the suite if you have more than 2 ppl, that way you will have the pull out sofa for small children.  We grocery shopped at Randalls, nearby at a plaza in Kingwood, and bought food for the week.  The kitchen is great with full appliances, dishes, pots &amp; pans, silverware, everything!The pool is outdoors and great during the Texas heat, but wasn't open early enough for us.  Every day we waited outside the gate for it to be unlocked at 9am.  Most hotel pools open at 6am or 7am, so 9am seemed a little late to us.  Watch out for the bugs that like to go in the pool also, but there is a skimmer by the pool, so we just skimmed them out ourselves a few times.The laundry area and fitness area were great, open 24 hours!The Candlewood Cupboard had all kinds of great choices.Matthew, the front desk employee, was very friendly to us during our entire stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>We stayed here for a week while visiting family in the Kingwood/Humble area.  The hotel is very new (2-1/2 months when we arrived) so some of the staff still seemed to stumble a bit, but the hotel was great!The staff was all very pleasant.  The entire property was very clean.  Our room was great.  I recommend the suite if you have more than 2 ppl, that way you will have the pull out sofa for small children.  We grocery shopped at Randalls, nearby at a plaza in Kingwood, and bought food for the week.  The kitchen is great with full appliances, dishes, pots &amp; pans, silverware, everything!The pool is outdoors and great during the Texas heat, but wasn't open early enough for us.  Every day we waited outside the gate for it to be unlocked at 9am.  Most hotel pools open at 6am or 7am, so 9am seemed a little late to us.  Watch out for the bugs that like to go in the pool also, but there is a skimmer by the pool, so we just skimmed them out ourselves a few times.The laundry area and fitness area were great, open 24 hours!The Candlewood Cupboard had all kinds of great choices.Matthew, the front desk employee, was very friendly to us during our entire stay.More</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1644,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1270,29 +1652,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1308,7 +1680,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1317,43 +1689,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1369,7 +1737,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1378,45 +1746,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1432,7 +1804,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1441,39 +1813,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1510,22 +1886,22 @@
         <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1573,31 +1949,27 @@
         <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1613,7 +1985,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1622,25 +1994,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1654,7 +2026,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1670,7 +2042,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1679,45 +2051,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1742,31 +2108,31 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
       </c>
@@ -1780,7 +2146,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1796,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1805,32 +2171,32 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>111</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1841,7 +2207,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1880,20 +2246,18 @@
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1904,7 +2268,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1929,32 +2293,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1965,7 +2329,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -1981,7 +2345,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1990,49 +2354,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2048,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2057,41 +2411,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>137</v>
-      </c>
-      <c r="X15" t="s">
-        <v>138</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
         <v>139</v>
       </c>
@@ -2109,7 +2465,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2118,41 +2474,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
         <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2160,7 +2512,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2176,7 +2528,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2185,49 +2537,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
         <v>148</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>149</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>150</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>151</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>152</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
@@ -2243,7 +2595,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2252,35 +2604,31 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -2294,7 +2642,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -2310,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2319,37 +2667,31 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2361,7 +2703,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -2377,7 +2719,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2386,26 +2728,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O20" t="s">
-        <v>69</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="n">
         <v>5</v>
       </c>
@@ -2428,7 +2766,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -2444,7 +2782,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2453,41 +2791,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2495,7 +2827,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -2532,13 +2864,13 @@
         <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
         <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2599,41 +2931,37 @@
         <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
         <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>190</v>
-      </c>
-      <c r="X23" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -2649,7 +2977,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2658,25 +2986,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
         <v>194</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>195</v>
       </c>
-      <c r="K24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" t="s">
-        <v>197</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2685,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -2700,7 +3028,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
@@ -2716,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2725,49 +3053,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
         <v>201</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>202</v>
       </c>
-      <c r="K25" t="s">
+      <c r="X25" t="s">
         <v>203</v>
       </c>
-      <c r="L25" t="s">
+      <c r="Y25" t="s">
         <v>204</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>205</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -2783,7 +3105,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2792,41 +3114,41 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
         <v>208</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>209</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>210</v>
       </c>
-      <c r="L26" t="s">
-        <v>211</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>212</v>
-      </c>
       <c r="O26" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2834,7 +3156,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -2850,7 +3172,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2859,26 +3181,22 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
         <v>215</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>216</v>
       </c>
-      <c r="K27" t="s">
-        <v>217</v>
-      </c>
-      <c r="L27" t="s">
-        <v>218</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s">
-        <v>219</v>
-      </c>
-      <c r="O27" t="s">
-        <v>53</v>
-      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
         <v>5</v>
       </c>
@@ -2886,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -2901,7 +3219,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
@@ -2917,7 +3235,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2926,49 +3244,1324 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
         <v>222</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>223</v>
       </c>
-      <c r="K28" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" t="s">
-        <v>225</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>226</v>
-      </c>
       <c r="O28" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>224</v>
+      </c>
+      <c r="X28" t="s">
+        <v>225</v>
+      </c>
       <c r="Y28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
         <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>267</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>318</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
+        <v>324</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s">
+        <v>336</v>
+      </c>
+      <c r="L45" t="s">
+        <v>337</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>338</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60486</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
